--- a/biology/Botanique/Parc_de_Montpellas/Parc_de_Montpellas.xlsx
+++ b/biology/Botanique/Parc_de_Montpellas/Parc_de_Montpellas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le parc de Montpellas, appelé aussi jardin de la Mairie[1], est un parc situé dans le 9e arrondissement de Lyon, en France. Couvrant une superficie d’environ un hectare et demi[2], il est situé entre le plateau de Saint-Rambert et la Saône.
+Le parc de Montpellas, appelé aussi jardin de la Mairie, est un parc situé dans le 9e arrondissement de Lyon, en France. Couvrant une superficie d’environ un hectare et demi, il est situé entre le plateau de Saint-Rambert et la Saône.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc occupe une sorte de quadrilatère, délimité :
 côté nord ouest, par le chemin de Montpellas,
@@ -554,7 +568,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 9 juin 1564, dans le cadre du tour de France organisé par Catherine de Médicis pour présenter au peuple son fils, le tout jeune Charles IX, le nouveau roi et sa mère logent dans une maison, aujourd’hui mairie annexe de Saint-Rambert, qui jouxte le parc de Montpellas.
 </t>
@@ -585,7 +601,9 @@
           <t>Accès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Des transports en commun donnent accès au parc, ainsi :
 la ligne de bus S10, arrêt Mairie de Saint-Rambert (partie basse) ou Schonberg (partie haute)</t>
